--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAC4D0D-4649-B044-9496-4DBCA12A8561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F411C6-B831-7645-B6FF-ACCDD9F195B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts_master" sheetId="1" r:id="rId1"/>
@@ -35,50 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>ops1@example.mil</t>
-  </si>
-  <si>
-    <t>Ens. Lee Example</t>
-  </si>
-  <si>
-    <t>lee@example.mil</t>
-  </si>
-  <si>
-    <t>+972-50-000-0002</t>
-  </si>
-  <si>
-    <t>Lt. Noa Example</t>
-  </si>
-  <si>
-    <t>noa@example.mil</t>
-  </si>
-  <si>
-    <t>+972-50-000-0003</t>
-  </si>
-  <si>
-    <t>CPO Amir Example</t>
-  </si>
-  <si>
-    <t>amir@example.mil</t>
-  </si>
-  <si>
-    <t>+972-50-000-0004</t>
-  </si>
-  <si>
     <t>contact_email</t>
   </si>
   <si>
@@ -88,57 +55,9 @@
     <t>color_id</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>Tomato Red</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Graphite</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Basil Green</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Cyan</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Peacock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Lavender</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -166,29 +85,515 @@
     <t>צוות</t>
   </si>
   <si>
-    <t>Alon Berko</t>
-  </si>
-  <si>
-    <t>ops2@example.com</t>
-  </si>
-  <si>
-    <t>Gilad Brarak</t>
-  </si>
-  <si>
     <t>giladondon@gmail.com</t>
   </si>
   <si>
-    <t>+972-54-450-4730</t>
-  </si>
-  <si>
     <t>סונר</t>
+  </si>
+  <si>
+    <t>חיים</t>
+  </si>
+  <si>
+    <t>כנפו</t>
+  </si>
+  <si>
+    <t>מתן</t>
+  </si>
+  <si>
+    <t>אלמליח</t>
+  </si>
+  <si>
+    <t>ירין</t>
+  </si>
+  <si>
+    <t>ואקנין</t>
+  </si>
+  <si>
+    <t>אורי</t>
+  </si>
+  <si>
+    <t>פז</t>
+  </si>
+  <si>
+    <t>עדו</t>
+  </si>
+  <si>
+    <t>לנדא</t>
+  </si>
+  <si>
+    <t>אלון</t>
+  </si>
+  <si>
+    <t>זינגר</t>
+  </si>
+  <si>
+    <t>יואב</t>
+  </si>
+  <si>
+    <t>רותם</t>
+  </si>
+  <si>
+    <t>נבות</t>
+  </si>
+  <si>
+    <t>זהר</t>
+  </si>
+  <si>
+    <t>אורן</t>
+  </si>
+  <si>
+    <t>רוזנמן</t>
+  </si>
+  <si>
+    <t>יגאל</t>
+  </si>
+  <si>
+    <t>פוקרוי</t>
+  </si>
+  <si>
+    <t>פרייבך</t>
+  </si>
+  <si>
+    <t>לאו</t>
+  </si>
+  <si>
+    <t>אל מן</t>
+  </si>
+  <si>
+    <t>תום</t>
+  </si>
+  <si>
+    <t>זימל</t>
+  </si>
+  <si>
+    <t>אריאל</t>
+  </si>
+  <si>
+    <t>שיפר</t>
+  </si>
+  <si>
+    <t>איתי</t>
+  </si>
+  <si>
+    <t>מושקוביץ</t>
+  </si>
+  <si>
+    <t>דקל</t>
+  </si>
+  <si>
+    <t>אליהו</t>
+  </si>
+  <si>
+    <t>אלדר</t>
+  </si>
+  <si>
+    <t>הירש</t>
+  </si>
+  <si>
+    <t>וינדמילר</t>
+  </si>
+  <si>
+    <t>יהונתן</t>
+  </si>
+  <si>
+    <t>אמר</t>
+  </si>
+  <si>
+    <t>קרבי</t>
+  </si>
+  <si>
+    <t>שביט</t>
+  </si>
+  <si>
+    <t>טל</t>
+  </si>
+  <si>
+    <t>פדה</t>
+  </si>
+  <si>
+    <t>עמית</t>
+  </si>
+  <si>
+    <t>שמשון</t>
+  </si>
+  <si>
+    <t>יאיר</t>
+  </si>
+  <si>
+    <t>יצחקי</t>
+  </si>
+  <si>
+    <t>מתיה</t>
+  </si>
+  <si>
+    <t>גרונוולד</t>
+  </si>
+  <si>
+    <t>אסף</t>
+  </si>
+  <si>
+    <t>פרי</t>
+  </si>
+  <si>
+    <t>נועם</t>
+  </si>
+  <si>
+    <t>הורביץ</t>
+  </si>
+  <si>
+    <t>רועי</t>
+  </si>
+  <si>
+    <t>רובמן</t>
+  </si>
+  <si>
+    <t>אוריה</t>
+  </si>
+  <si>
+    <t>סבן</t>
+  </si>
+  <si>
+    <t>רן</t>
+  </si>
+  <si>
+    <t>אלקובי</t>
+  </si>
+  <si>
+    <t>אלחנן</t>
+  </si>
+  <si>
+    <t>אדוביצקי</t>
+  </si>
+  <si>
+    <t>יובל</t>
+  </si>
+  <si>
+    <t>קרמינסקי</t>
+  </si>
+  <si>
+    <t>נדב</t>
+  </si>
+  <si>
+    <t>איסקביץ</t>
+  </si>
+  <si>
+    <t>תומר</t>
+  </si>
+  <si>
+    <t>רוזנבלט</t>
+  </si>
+  <si>
+    <t>בן</t>
+  </si>
+  <si>
+    <t>שדה</t>
+  </si>
+  <si>
+    <t>עופרי</t>
+  </si>
+  <si>
+    <t>קורן</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t>אילון</t>
+  </si>
+  <si>
+    <t>עזרן</t>
+  </si>
+  <si>
+    <t>עידו</t>
+  </si>
+  <si>
+    <t>מזרחי</t>
+  </si>
+  <si>
+    <t>אייל</t>
+  </si>
+  <si>
+    <t>פלדמן</t>
+  </si>
+  <si>
+    <t>נריה</t>
+  </si>
+  <si>
+    <t>רבינר</t>
+  </si>
+  <si>
+    <t>ראם</t>
+  </si>
+  <si>
+    <t>איתן</t>
+  </si>
+  <si>
+    <t>אלעד</t>
+  </si>
+  <si>
+    <t>וזה</t>
+  </si>
+  <si>
+    <t>אברהם</t>
+  </si>
+  <si>
+    <t>מרמור</t>
+  </si>
+  <si>
+    <t>שי</t>
+  </si>
+  <si>
+    <t>שמידט</t>
+  </si>
+  <si>
+    <t>עומר</t>
+  </si>
+  <si>
+    <t>אבינטע</t>
+  </si>
+  <si>
+    <t>סטיב</t>
+  </si>
+  <si>
+    <t>פורמנוב</t>
+  </si>
+  <si>
+    <t>ראוך</t>
+  </si>
+  <si>
+    <t>אדיר</t>
+  </si>
+  <si>
+    <t>גדסי</t>
+  </si>
+  <si>
+    <t>דניאל</t>
+  </si>
+  <si>
+    <t>בוחבוט</t>
+  </si>
+  <si>
+    <t>שחר</t>
+  </si>
+  <si>
+    <t>הימן</t>
+  </si>
+  <si>
+    <t>גיא</t>
+  </si>
+  <si>
+    <t>לוקץ</t>
+  </si>
+  <si>
+    <t>לוי</t>
+  </si>
+  <si>
+    <t>עדין</t>
+  </si>
+  <si>
+    <t>שור</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>סונאר</t>
+  </si>
+  <si>
+    <t>דהאן</t>
+  </si>
+  <si>
+    <t>Chaimkn@gmail.com</t>
+  </si>
+  <si>
+    <t>matana95@walla.com</t>
+  </si>
+  <si>
+    <t>vakninyarin777@gmail.com</t>
+  </si>
+  <si>
+    <t>oripaz19@gmail.com</t>
+  </si>
+  <si>
+    <t>alonzinger76@gmail.com</t>
+  </si>
+  <si>
+    <t>Yrotem23@gmail.com</t>
+  </si>
+  <si>
+    <t>alonnavot1@gmail.com</t>
+  </si>
+  <si>
+    <t>orizohar234@gmail.com</t>
+  </si>
+  <si>
+    <t>orenros99@gmail.com</t>
+  </si>
+  <si>
+    <t>pokroyigal@gmail.com</t>
+  </si>
+  <si>
+    <t>yoavfreibach16@gmail.com</t>
+  </si>
+  <si>
+    <t>elmann.leo@gmail.com</t>
+  </si>
+  <si>
+    <t>Tzimel2311@gmail.com</t>
+  </si>
+  <si>
+    <t>ariel55shiffer@gmail.com</t>
+  </si>
+  <si>
+    <t>Uri3366@gmail.com</t>
+  </si>
+  <si>
+    <t>amar.yehonatan176@gmail.com</t>
+  </si>
+  <si>
+    <t>Karbyalon@gmail.com</t>
+  </si>
+  <si>
+    <t>shavitaitai@gmail.com</t>
+  </si>
+  <si>
+    <t>padetal@gmail.com</t>
+  </si>
+  <si>
+    <t>amitshimshon32@gmail.com</t>
+  </si>
+  <si>
+    <t>Matiagrune05@gmail.com</t>
+  </si>
+  <si>
+    <t>assafpery@gmail.com</t>
+  </si>
+  <si>
+    <t>uriyasaban233@gmail.com</t>
+  </si>
+  <si>
+    <t>ranelkobi2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Elhalan276872@gmail.com</t>
+  </si>
+  <si>
+    <t>Yuval.karminsky1@gmail.com</t>
+  </si>
+  <si>
+    <t>nadaviskevitch@gmail.com</t>
+  </si>
+  <si>
+    <t>rozetomer@gmail.com</t>
+  </si>
+  <si>
+    <t>bensadde@gmail.com</t>
+  </si>
+  <si>
+    <t>Ofrikoren5@gmail.com</t>
+  </si>
+  <si>
+    <t>eylonazran@gmail.com</t>
+  </si>
+  <si>
+    <t>Ido123443@gmail.com</t>
+  </si>
+  <si>
+    <t>neria.rabiner@gmail.com</t>
+  </si>
+  <si>
+    <t>reemeitann@gmail.com</t>
+  </si>
+  <si>
+    <t>eladvsea10@gmail.com</t>
+  </si>
+  <si>
+    <t>abrahamm810@gmail.com</t>
+  </si>
+  <si>
+    <t>shay.shmidt@gmail.com</t>
+  </si>
+  <si>
+    <t>avineta.omer@gmail.com</t>
+  </si>
+  <si>
+    <t>stevefurmanov@gmail.com</t>
+  </si>
+  <si>
+    <t>Roeerauch123@gmail.com</t>
+  </si>
+  <si>
+    <t>Gadasiadir@gmail.com</t>
+  </si>
+  <si>
+    <t>Danielbobit@gmail.com</t>
+  </si>
+  <si>
+    <t>shahar.heim@gmail.com</t>
+  </si>
+  <si>
+    <t>Guy.lukatz@gmail.com</t>
+  </si>
+  <si>
+    <t>ltomer02@gmail.com</t>
+  </si>
+  <si>
+    <t>adinschorr@gmail.com</t>
+  </si>
+  <si>
+    <t>Alondahan2005@gmail.com</t>
+  </si>
+  <si>
+    <t>058-7855078</t>
+  </si>
+  <si>
+    <t>גלעד</t>
+  </si>
+  <si>
+    <t>ברק</t>
+  </si>
+  <si>
+    <t>סגל</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>sage</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>גנק</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +614,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,13 +670,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -557,230 +983,1681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="6">
+        <v>529277425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
+      <c r="B3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>544504730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="4">
+        <v>542456043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4">
+        <v>503662005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="6">
+        <v>545238343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="6">
+        <v>505500972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="6">
+        <v>544995721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="6">
+        <v>502151434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="6">
+        <v>547950103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="6">
+        <v>558813845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="6">
+        <v>584832994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="6">
+        <v>542821655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="6">
+        <v>587073034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="6">
+        <v>587236623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="6">
+        <v>587667678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="6">
+        <v>546604917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="6">
+        <v>505910899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="6">
+        <v>542134149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="6">
+        <v>556611596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="6">
+        <v>538303026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="6">
+        <v>508934934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="6">
+        <v>527005140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="6">
+        <v>556608886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="6">
+        <v>525439953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="6">
+        <v>522714794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="6">
+        <v>523645160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="6">
+        <v>547735383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="6">
+        <v>526580590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="6">
+        <v>549026094</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="6">
+        <v>542627655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="6">
+        <v>524321095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="6">
+        <v>542295672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="6">
+        <v>524794665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="6">
+        <v>525718804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
+      <c r="B45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="6">
+        <v>543204346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="6">
+        <v>535303414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="6">
+        <v>548247175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="6">
+        <v>547582288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="6">
+        <v>543127270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="6">
+        <v>545565214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="6">
+        <v>584211171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="6">
+        <v>506882838</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="6">
+        <v>502518444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="6">
+        <v>587744008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="6">
+        <v>505600616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="6">
+        <v>585610465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="6">
+        <v>549081999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{46F68578-013B-FB46-9DFC-9EB9CA004F61}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{5739C88A-35D5-1D48-B21B-E64FA1F47C2A}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{46042D80-A68B-C245-B289-64926058A7A2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - בלמ"ס -&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7A7CB246-7082-394A-9569-0931C19DCF26}"/>
+    <hyperlink ref="B51" r:id="rId2" xr:uid="{D21F1DF9-A76F-B74E-A181-B887EBFF11A3}"/>
+    <hyperlink ref="B54" r:id="rId3" xr:uid="{83B4A829-F3C5-9D47-8F7F-E660ADBA3804}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - בלמ"ס -&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -788,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,115 +2677,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
+        <v>179</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>181</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>174</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>177</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>176</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+        <v>182</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - בלמ"ס -&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F411C6-B831-7645-B6FF-ACCDD9F195B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975FB03-0D4A-E24D-8C1D-6A3FE549F876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts_master" sheetId="1" r:id="rId1"/>
-    <sheet name="tag_membership" sheetId="2" r:id="rId2"/>
-    <sheet name="tag_meta" sheetId="3" r:id="rId3"/>
+    <sheet name="tag_meta" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +45,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>contact_email</t>
-  </si>
-  <si>
     <t>color_name</t>
   </si>
   <si>
@@ -67,9 +63,6 @@
     <t>גנ״ק</t>
   </si>
   <si>
-    <t>פיקוד</t>
-  </si>
-  <si>
     <t>נשק</t>
   </si>
   <si>
@@ -400,15 +393,9 @@
     <t>last name</t>
   </si>
   <si>
-    <t>סונאר</t>
-  </si>
-  <si>
     <t>דהאן</t>
   </si>
   <si>
-    <t>Chaimkn@gmail.com</t>
-  </si>
-  <si>
     <t>matana95@walla.com</t>
   </si>
   <si>
@@ -586,7 +573,40 @@
     <t>red</t>
   </si>
   <si>
-    <t>גנק</t>
+    <t>גנק, צוות, מבצעים</t>
+  </si>
+  <si>
+    <t>גנק, צוות, מבצעים, סגל</t>
+  </si>
+  <si>
+    <t>מפקד, צוות, מבצעים, סגל</t>
+  </si>
+  <si>
+    <t>מפקד, צוות, סגן, מבצעים, סגל</t>
+  </si>
+  <si>
+    <t>גנק, צוות, סגל</t>
+  </si>
+  <si>
+    <t>גנק, צוות</t>
+  </si>
+  <si>
+    <t>נשק, צוות, סגל</t>
+  </si>
+  <si>
+    <t>נשק, צוות</t>
+  </si>
+  <si>
+    <t>סונאר, צוות, סגל</t>
+  </si>
+  <si>
+    <t>סונאר, צוות</t>
+  </si>
+  <si>
+    <t>טכנית, צוות, סגל</t>
+  </si>
+  <si>
+    <t>טכנית, צוות</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1011,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1001,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1021,17 +1042,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="6">
         <v>529277425</v>
       </c>
@@ -1041,16 +1060,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4">
         <v>544504730</v>
@@ -1061,16 +1080,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4">
         <v>542456043</v>
@@ -1081,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F5" s="4">
         <v>503662005</v>
@@ -1101,16 +1120,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F6" s="6">
         <v>545238343</v>
@@ -1121,13 +1140,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1137,16 +1156,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F8" s="6">
         <v>505500972</v>
@@ -1157,16 +1176,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F9" s="6">
         <v>544995721</v>
@@ -1177,16 +1196,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" s="6">
         <v>502151434</v>
@@ -1197,16 +1216,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F11" s="6">
         <v>547950103</v>
@@ -1217,16 +1236,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F12" s="6">
         <v>558813845</v>
@@ -1237,16 +1256,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="6">
         <v>584832994</v>
@@ -1257,16 +1276,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F14" s="6">
         <v>542821655</v>
@@ -1277,16 +1296,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F15" s="6">
         <v>587073034</v>
@@ -1297,16 +1316,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F16" s="6">
         <v>587236623</v>
@@ -1317,16 +1336,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F17" s="6">
         <v>587667678</v>
@@ -1337,13 +1356,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1353,13 +1372,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1369,13 +1388,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1385,16 +1404,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F21" s="6">
         <v>546604917</v>
@@ -1405,16 +1424,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F22" s="6">
         <v>505910899</v>
@@ -1425,16 +1444,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F23" s="6">
         <v>542134149</v>
@@ -1445,16 +1464,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F24" s="6">
         <v>556611596</v>
@@ -1465,16 +1484,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F25" s="6">
         <v>538303026</v>
@@ -1485,16 +1504,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F26" s="6">
         <v>508934934</v>
@@ -1505,13 +1524,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1521,16 +1540,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F28" s="6">
         <v>527005140</v>
@@ -1541,16 +1560,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F29" s="6">
         <v>556608886</v>
@@ -1561,13 +1580,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1577,13 +1596,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1593,16 +1612,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F32" s="6">
         <v>525439953</v>
@@ -1613,16 +1632,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F33" s="6">
         <v>522714794</v>
@@ -1633,16 +1652,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F34" s="6">
         <v>523645160</v>
@@ -1653,16 +1672,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F35" s="6">
         <v>547735383</v>
@@ -1673,16 +1692,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F36" s="6">
         <v>526580590</v>
@@ -1693,16 +1712,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F37" s="6">
         <v>549026094</v>
@@ -1713,16 +1732,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F38" s="6">
         <v>542627655</v>
@@ -1733,16 +1752,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F39" s="6">
         <v>524321095</v>
@@ -1753,13 +1772,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1769,16 +1788,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F41" s="6">
         <v>542295672</v>
@@ -1789,16 +1808,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F42" s="6">
         <v>524794665</v>
@@ -1809,13 +1828,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1825,16 +1844,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F44" s="6">
         <v>525718804</v>
@@ -1845,16 +1864,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F45" s="6">
         <v>543204346</v>
@@ -1865,16 +1884,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F46" s="6">
         <v>535303414</v>
@@ -1885,16 +1904,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F47" s="6">
         <v>548247175</v>
@@ -1905,16 +1924,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F48" s="6">
         <v>547582288</v>
@@ -1925,16 +1944,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F49" s="6">
         <v>543127270</v>
@@ -1945,16 +1964,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F50" s="6">
         <v>545565214</v>
@@ -1965,16 +1984,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F51" s="6">
         <v>584211171</v>
@@ -1985,16 +2004,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F52" s="6">
         <v>506882838</v>
@@ -2005,19 +2024,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2025,16 +2044,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F54" s="6">
         <v>502518444</v>
@@ -2045,16 +2064,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F55" s="6">
         <v>587744008</v>
@@ -2065,16 +2084,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F56" s="6">
         <v>505600616</v>
@@ -2085,13 +2104,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2101,16 +2120,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F58" s="6">
         <v>585610465</v>
@@ -2121,16 +2140,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F59" s="6">
         <v>549081999</v>
@@ -2148,520 +2167,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{7A7CB246-7082-394A-9569-0931C19DCF26}"/>
-    <hyperlink ref="B51" r:id="rId2" xr:uid="{D21F1DF9-A76F-B74E-A181-B887EBFF11A3}"/>
-    <hyperlink ref="B54" r:id="rId3" xr:uid="{83B4A829-F3C5-9D47-8F7F-E660ADBA3804}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - בלמ"ס -&amp;1#_x000D_</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2677,21 +2182,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2699,10 +2204,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2710,10 +2215,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2721,10 +2226,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2732,10 +2237,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2743,10 +2248,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2754,10 +2259,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -2765,10 +2270,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -2776,13 +2281,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975FB03-0D4A-E24D-8C1D-6A3FE549F876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F3192-D059-7248-AF38-43581CD781DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -607,6 +607,15 @@
   </si>
   <si>
     <t>טכנית, צוות</t>
+  </si>
+  <si>
+    <t>שטיין</t>
+  </si>
+  <si>
+    <t>eldarshtein@gmail.com</t>
+  </si>
+  <si>
+    <t>itaymosh9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1373,9 @@
       <c r="D18" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2155,9 +2166,28 @@
         <v>549081999</v>
       </c>
     </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{46042D80-A68B-C245-B289-64926058A7A2}"/>
+    <hyperlink ref="E60" r:id="rId2" xr:uid="{BCA7DD34-CE32-5E46-BA6A-86FF9100EB6B}"/>
+    <hyperlink ref="E18" r:id="rId3" xr:uid="{654552DE-AAED-034F-957F-7BD85063BA8E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F3192-D059-7248-AF38-43581CD781DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F537C6-5A9E-E34C-A18C-594D5B7875B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>אורי</t>
   </si>
   <si>
-    <t>פז</t>
-  </si>
-  <si>
     <t>עדו</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>vakninyarin777@gmail.com</t>
   </si>
   <si>
-    <t>oripaz19@gmail.com</t>
-  </si>
-  <si>
     <t>alonzinger76@gmail.com</t>
   </si>
   <si>
@@ -616,6 +610,12 @@
   </si>
   <si>
     <t>itaymosh9@gmail.com</t>
+  </si>
+  <si>
+    <t>בכר</t>
+  </si>
+  <si>
+    <t>Eyal895@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1057,7 +1057,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6">
@@ -1069,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1098,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4">
         <v>542456043</v>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4">
         <v>503662005</v>
@@ -1129,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F6" s="6">
         <v>545238343</v>
@@ -1149,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1165,16 +1165,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="6">
         <v>505500972</v>
@@ -1185,16 +1185,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="6">
         <v>544995721</v>
@@ -1205,16 +1205,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="6">
         <v>502151434</v>
@@ -1228,13 +1228,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" s="6">
         <v>547950103</v>
@@ -1245,16 +1245,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F12" s="6">
         <v>558813845</v>
@@ -1265,16 +1265,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="6">
         <v>584832994</v>
@@ -1285,16 +1285,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="6">
         <v>542821655</v>
@@ -1305,16 +1305,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="6">
         <v>587073034</v>
@@ -1325,16 +1325,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="6">
         <v>587236623</v>
@@ -1345,16 +1345,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="6">
         <v>587667678</v>
@@ -1365,16 +1365,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -1383,13 +1383,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1399,13 +1399,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1418,13 +1418,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="6">
         <v>546604917</v>
@@ -1435,16 +1435,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="6">
         <v>505910899</v>
@@ -1455,16 +1455,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F23" s="6">
         <v>542134149</v>
@@ -1475,16 +1475,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="6">
         <v>556611596</v>
@@ -1495,16 +1495,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" s="6">
         <v>538303026</v>
@@ -1515,16 +1515,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F26" s="6">
         <v>508934934</v>
@@ -1535,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1551,16 +1551,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F28" s="6">
         <v>527005140</v>
@@ -1571,16 +1571,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="6">
         <v>556608886</v>
@@ -1591,13 +1591,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1607,13 +1607,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1623,16 +1623,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F32" s="6">
         <v>525439953</v>
@@ -1643,16 +1643,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="6">
         <v>522714794</v>
@@ -1663,16 +1663,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" s="6">
         <v>523645160</v>
@@ -1683,16 +1683,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F35" s="6">
         <v>547735383</v>
@@ -1703,16 +1703,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F36" s="6">
         <v>526580590</v>
@@ -1723,16 +1723,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F37" s="6">
         <v>549026094</v>
@@ -1743,16 +1743,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F38" s="6">
         <v>542627655</v>
@@ -1763,16 +1763,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F39" s="6">
         <v>524321095</v>
@@ -1783,13 +1783,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1799,16 +1799,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F41" s="6">
         <v>542295672</v>
@@ -1819,16 +1819,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F42" s="6">
         <v>524794665</v>
@@ -1839,13 +1839,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1855,16 +1855,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F44" s="6">
         <v>525718804</v>
@@ -1875,16 +1875,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" s="6">
         <v>543204346</v>
@@ -1895,16 +1895,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F46" s="6">
         <v>535303414</v>
@@ -1915,16 +1915,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F47" s="6">
         <v>548247175</v>
@@ -1935,16 +1935,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F48" s="6">
         <v>547582288</v>
@@ -1955,16 +1955,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F49" s="6">
         <v>543127270</v>
@@ -1975,16 +1975,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F50" s="6">
         <v>545565214</v>
@@ -1995,16 +1995,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F51" s="6">
         <v>584211171</v>
@@ -2015,16 +2015,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F52" s="6">
         <v>506882838</v>
@@ -2035,19 +2035,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2055,16 +2055,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F54" s="6">
         <v>502518444</v>
@@ -2075,16 +2075,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F55" s="6">
         <v>587744008</v>
@@ -2095,16 +2095,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F56" s="6">
         <v>505600616</v>
@@ -2118,10 +2118,10 @@
         <v>20</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2131,16 +2131,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F58" s="6">
         <v>585610465</v>
@@ -2151,16 +2151,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F59" s="6">
         <v>549081999</v>
@@ -2171,16 +2171,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2237,7 +2237,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2248,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
         <v>169</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2281,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2292,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -2303,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -2314,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F537C6-5A9E-E34C-A18C-594D5B7875B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F25C4E-6925-CD43-8562-760EFA2AB69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F25C4E-6925-CD43-8562-760EFA2AB69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CE928-EA82-2E4C-94E8-A7FC96C54DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,10 +612,10 @@
     <t>itaymosh9@gmail.com</t>
   </si>
   <si>
-    <t>בכר</t>
-  </si>
-  <si>
-    <t>Eyal895@gmail.com</t>
+    <t>סנילביץ</t>
+  </si>
+  <si>
+    <t>Yoav.sanilevich@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>192</v>
@@ -1140,9 +1140,7 @@
       <c r="E6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="6">
-        <v>545238343</v>
-      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CE928-EA82-2E4C-94E8-A7FC96C54DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A337E4-E7C0-D34B-AB34-B8BF65EB169A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>Yoav.sanilevich@gmail.com</t>
+  </si>
+  <si>
+    <t>yuvalc0809@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1789,7 +1792,9 @@
       <c r="D40" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A337E4-E7C0-D34B-AB34-B8BF65EB169A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D578A-7CA6-054C-8C72-3B2381780481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -120,9 +120,6 @@
     <t>יואב</t>
   </si>
   <si>
-    <t>רותם</t>
-  </si>
-  <si>
     <t>נבות</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>alonzinger76@gmail.com</t>
   </si>
   <si>
-    <t>Yrotem23@gmail.com</t>
-  </si>
-  <si>
     <t>alonnavot1@gmail.com</t>
   </si>
   <si>
@@ -619,6 +613,15 @@
   </si>
   <si>
     <t>yuvalc0809@gmail.com</t>
+  </si>
+  <si>
+    <t>סורני</t>
+  </si>
+  <si>
+    <t>יונתן</t>
+  </si>
+  <si>
+    <t>yonatansoreni@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1060,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6">
@@ -1072,13 +1075,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1101,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="4">
         <v>542456043</v>
@@ -1121,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="4">
         <v>503662005</v>
@@ -1135,13 +1138,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1156,7 +1159,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1172,10 +1175,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="6">
         <v>505500972</v>
@@ -1186,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="6">
-        <v>544995721</v>
+        <v>502151434</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1206,19 +1209,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="6">
-        <v>502151434</v>
+        <v>547950103</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1226,19 +1229,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="6">
-        <v>547950103</v>
+        <v>558813845</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1246,19 +1249,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="6">
-        <v>558813845</v>
+        <v>584832994</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1266,19 +1269,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="6">
-        <v>584832994</v>
+        <v>542821655</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1286,19 +1289,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="6">
-        <v>542821655</v>
+        <v>587073034</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1306,19 +1309,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="6">
-        <v>587073034</v>
+        <v>587236623</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1326,19 +1329,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="6">
-        <v>587236623</v>
+        <v>587667678</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1346,37 +1349,33 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6">
-        <v>587667678</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1384,13 +1383,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1400,35 +1399,39 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="6">
+        <v>546604917</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="6">
-        <v>546604917</v>
+        <v>505910899</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1436,19 +1439,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="6">
-        <v>505910899</v>
+        <v>542134149</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1456,19 +1459,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="6">
-        <v>542134149</v>
+        <v>556611596</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1476,19 +1479,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="6">
-        <v>556611596</v>
+        <v>538303026</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1496,19 +1499,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="6">
-        <v>538303026</v>
+        <v>508934934</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1516,55 +1519,55 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="6">
-        <v>508934934</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="6">
+        <v>527005140</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="6">
-        <v>527005140</v>
+        <v>556608886</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1572,33 +1575,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="6">
-        <v>556608886</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1608,35 +1607,39 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="6">
+        <v>525439953</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32" s="6">
-        <v>525439953</v>
+        <v>522714794</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1644,19 +1647,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="6">
-        <v>522714794</v>
+        <v>523645160</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1664,19 +1667,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="6">
-        <v>523645160</v>
+        <v>547735383</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1684,19 +1687,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F35" s="6">
-        <v>547735383</v>
+        <v>526580590</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1704,19 +1707,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="6">
-        <v>526580590</v>
+        <v>549026094</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1724,19 +1727,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="6">
-        <v>549026094</v>
+        <v>542627655</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1744,19 +1747,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F38" s="6">
-        <v>542627655</v>
+        <v>524321095</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1764,57 +1767,57 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="6">
-        <v>524321095</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="F40" s="6">
+        <v>542295672</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" s="6">
-        <v>542295672</v>
+        <v>524794665</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1822,55 +1825,55 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="6">
-        <v>524794665</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="6">
+        <v>525718804</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" s="6">
-        <v>525718804</v>
+        <v>543204346</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1878,19 +1881,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="6">
-        <v>543204346</v>
+        <v>535303414</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1898,19 +1901,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F46" s="6">
-        <v>535303414</v>
+        <v>548247175</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1918,19 +1921,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="6">
-        <v>548247175</v>
+        <v>547582288</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1938,19 +1941,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" s="6">
-        <v>547582288</v>
+        <v>543127270</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1958,19 +1961,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="6">
-        <v>543127270</v>
+        <v>545565214</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1978,19 +1981,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="6">
-        <v>545565214</v>
+        <v>584211171</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1998,19 +2001,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F51" s="6">
-        <v>584211171</v>
+        <v>506882838</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2018,19 +2021,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="6">
-        <v>506882838</v>
+        <v>156</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2038,19 +2041,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="F53" s="6">
+        <v>502518444</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2058,19 +2061,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" s="6">
-        <v>502518444</v>
+        <v>587744008</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2078,19 +2081,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55" s="6">
-        <v>587744008</v>
+        <v>505600616</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2098,55 +2101,55 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="6">
-        <v>505600616</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="6">
+        <v>585610465</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F58" s="6">
-        <v>585610465</v>
+        <v>549081999</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2154,19 +2157,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F59" s="6">
-        <v>549081999</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2174,23 +2174,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="E60" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{46042D80-A68B-C245-B289-64926058A7A2}"/>
-    <hyperlink ref="E60" r:id="rId2" xr:uid="{BCA7DD34-CE32-5E46-BA6A-86FF9100EB6B}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{654552DE-AAED-034F-957F-7BD85063BA8E}"/>
+    <hyperlink ref="E59" r:id="rId2" xr:uid="{BCA7DD34-CE32-5E46-BA6A-86FF9100EB6B}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{654552DE-AAED-034F-957F-7BD85063BA8E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2229,7 +2229,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2251,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>169</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2284,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2295,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -2306,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -2317,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D578A-7CA6-054C-8C72-3B2381780481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6512D251-6DA5-604C-9A4C-8E7B98FF799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -622,6 +622,48 @@
   </si>
   <si>
     <t>yonatansoreni@gmail.com</t>
+  </si>
+  <si>
+    <t>תירוש</t>
+  </si>
+  <si>
+    <t>אבישי</t>
+  </si>
+  <si>
+    <t>avishitirosh@gmail.com</t>
+  </si>
+  <si>
+    <t>מעוז</t>
+  </si>
+  <si>
+    <t>shaharmaoz2005@gmail.com</t>
+  </si>
+  <si>
+    <t>ויסבקר</t>
+  </si>
+  <si>
+    <t>guy.wsbkr@gmail.com</t>
+  </si>
+  <si>
+    <t>ויצמן</t>
+  </si>
+  <si>
+    <t>Nadavaizman10@gmail.com</t>
+  </si>
+  <si>
+    <t>אילאי</t>
+  </si>
+  <si>
+    <t>ביטון</t>
+  </si>
+  <si>
+    <t>ilay.biton128@gmail.com</t>
+  </si>
+  <si>
+    <t>סויד</t>
+  </si>
+  <si>
+    <t>ariel.sweid123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2183,6 +2225,107 @@
         <v>186</v>
       </c>
       <c r="E60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" t="s">
         <v>195</v>
       </c>
     </row>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6512D251-6DA5-604C-9A4C-8E7B98FF799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446BD78D-6B44-CB48-9120-F250D03EA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -120,18 +120,9 @@
     <t>יואב</t>
   </si>
   <si>
-    <t>נבות</t>
-  </si>
-  <si>
     <t>זהר</t>
   </si>
   <si>
-    <t>אורן</t>
-  </si>
-  <si>
-    <t>רוזנמן</t>
-  </si>
-  <si>
     <t>יגאל</t>
   </si>
   <si>
@@ -177,15 +168,6 @@
     <t>הירש</t>
   </si>
   <si>
-    <t>וינדמילר</t>
-  </si>
-  <si>
-    <t>יהונתן</t>
-  </si>
-  <si>
-    <t>אמר</t>
-  </si>
-  <si>
     <t>קרבי</t>
   </si>
   <si>
@@ -240,18 +222,6 @@
     <t>סבן</t>
   </si>
   <si>
-    <t>רן</t>
-  </si>
-  <si>
-    <t>אלקובי</t>
-  </si>
-  <si>
-    <t>אלחנן</t>
-  </si>
-  <si>
-    <t>אדוביצקי</t>
-  </si>
-  <si>
     <t>יובל</t>
   </si>
   <si>
@@ -309,12 +279,6 @@
     <t>רבינר</t>
   </si>
   <si>
-    <t>ראם</t>
-  </si>
-  <si>
-    <t>איתן</t>
-  </si>
-  <si>
     <t>אלעד</t>
   </si>
   <si>
@@ -354,12 +318,6 @@
     <t>גדסי</t>
   </si>
   <si>
-    <t>דניאל</t>
-  </si>
-  <si>
-    <t>בוחבוט</t>
-  </si>
-  <si>
     <t>שחר</t>
   </si>
   <si>
@@ -399,15 +357,9 @@
     <t>alonzinger76@gmail.com</t>
   </si>
   <si>
-    <t>alonnavot1@gmail.com</t>
-  </si>
-  <si>
     <t>orizohar234@gmail.com</t>
   </si>
   <si>
-    <t>orenros99@gmail.com</t>
-  </si>
-  <si>
     <t>pokroyigal@gmail.com</t>
   </si>
   <si>
@@ -423,12 +375,6 @@
     <t>ariel55shiffer@gmail.com</t>
   </si>
   <si>
-    <t>Uri3366@gmail.com</t>
-  </si>
-  <si>
-    <t>amar.yehonatan176@gmail.com</t>
-  </si>
-  <si>
     <t>Karbyalon@gmail.com</t>
   </si>
   <si>
@@ -450,12 +396,6 @@
     <t>uriyasaban233@gmail.com</t>
   </si>
   <si>
-    <t>ranelkobi2002@gmail.com</t>
-  </si>
-  <si>
-    <t>Elhalan276872@gmail.com</t>
-  </si>
-  <si>
     <t>Yuval.karminsky1@gmail.com</t>
   </si>
   <si>
@@ -480,9 +420,6 @@
     <t>neria.rabiner@gmail.com</t>
   </si>
   <si>
-    <t>reemeitann@gmail.com</t>
-  </si>
-  <si>
     <t>eladvsea10@gmail.com</t>
   </si>
   <si>
@@ -504,9 +441,6 @@
     <t>Gadasiadir@gmail.com</t>
   </si>
   <si>
-    <t>Danielbobit@gmail.com</t>
-  </si>
-  <si>
     <t>shahar.heim@gmail.com</t>
   </si>
   <si>
@@ -522,9 +456,6 @@
     <t>Alondahan2005@gmail.com</t>
   </si>
   <si>
-    <t>058-7855078</t>
-  </si>
-  <si>
     <t>גלעד</t>
   </si>
   <si>
@@ -664,6 +595,18 @@
   </si>
   <si>
     <t>ariel.sweid123@gmail.com</t>
+  </si>
+  <si>
+    <t>עיטם</t>
+  </si>
+  <si>
+    <t>eitamiz5@gmail.com</t>
+  </si>
+  <si>
+    <t>רז</t>
+  </si>
+  <si>
+    <t>tomerraz30@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1079,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1105,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6">
@@ -1117,13 +1060,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1146,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4">
         <v>542456043</v>
@@ -1166,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F5" s="4">
         <v>503662005</v>
@@ -1180,13 +1123,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1201,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1217,10 +1160,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F8" s="6">
         <v>505500972</v>
@@ -1231,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F9" s="6">
-        <v>502151434</v>
+        <v>547950103</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1251,19 +1194,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F10" s="6">
-        <v>547950103</v>
+        <v>584832994</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1271,19 +1214,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F11" s="6">
-        <v>558813845</v>
+        <v>542821655</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1297,13 +1240,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F12" s="6">
-        <v>584832994</v>
+        <v>587073034</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1311,19 +1254,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F13" s="6">
-        <v>542821655</v>
+        <v>587236623</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1331,19 +1274,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F14" s="6">
-        <v>587073034</v>
+        <v>587667678</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1351,57 +1294,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="6">
-        <v>587236623</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="6">
-        <v>587667678</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1409,51 +1344,59 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6">
+        <v>542134149</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="6">
+        <v>556611596</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F20" s="6">
-        <v>546604917</v>
+        <v>538303026</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1467,13 +1410,13 @@
         <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F21" s="6">
-        <v>505910899</v>
+        <v>508934934</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1481,39 +1424,35 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="6">
-        <v>542134149</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F23" s="6">
-        <v>556611596</v>
+        <v>527005140</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1521,19 +1460,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F24" s="6">
-        <v>538303026</v>
+        <v>556608886</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1541,33 +1480,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="6">
-        <v>508934934</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1577,19 +1512,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F27" s="6">
-        <v>527005140</v>
+        <v>525439953</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1597,19 +1532,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F28" s="6">
-        <v>556608886</v>
+        <v>547735383</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1617,51 +1552,59 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="6">
+        <v>526580590</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="6">
+        <v>549026094</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F31" s="6">
-        <v>525439953</v>
+        <v>542627655</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1669,19 +1612,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F32" s="6">
-        <v>522714794</v>
+        <v>524321095</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1689,39 +1632,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="6">
-        <v>523645160</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F34" s="6">
-        <v>547735383</v>
+        <v>542295672</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1729,19 +1670,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F35" s="6">
-        <v>526580590</v>
+        <v>524794665</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1749,39 +1690,35 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="6">
-        <v>549026094</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F37" s="6">
-        <v>542627655</v>
+        <v>525718804</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1789,19 +1726,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F38" s="6">
-        <v>524321095</v>
+        <v>535303414</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1809,37 +1746,39 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="F39" s="6">
+        <v>548247175</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F40" s="6">
-        <v>542295672</v>
+        <v>547582288</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1847,19 +1786,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F41" s="6">
-        <v>524794665</v>
+        <v>543127270</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1867,35 +1806,39 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="6">
+        <v>545565214</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F43" s="6">
-        <v>525718804</v>
+        <v>584211171</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1903,19 +1846,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F44" s="6">
-        <v>543204346</v>
+        <v>506882838</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1923,19 +1866,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F45" s="6">
-        <v>535303414</v>
+        <v>502518444</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1943,19 +1886,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F46" s="6">
-        <v>548247175</v>
+        <v>587744008</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1963,19 +1906,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F47" s="6">
-        <v>547582288</v>
+        <v>505600616</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1983,39 +1926,35 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="6">
-        <v>543127270</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F49" s="6">
-        <v>545565214</v>
+        <v>585610465</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2023,19 +1962,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F50" s="6">
-        <v>584211171</v>
+        <v>549081999</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2043,19 +1982,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="6">
-        <v>506882838</v>
+        <v>157</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2063,19 +1999,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2083,19 +2016,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="6">
-        <v>502518444</v>
+        <v>161</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2103,19 +2033,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="6">
-        <v>587744008</v>
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2123,19 +2050,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="6">
-        <v>505600616</v>
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2143,35 +2067,33 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="6">
-        <v>585610465</v>
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2179,19 +2101,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" t="s">
         <v>186</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F58" s="6">
-        <v>549081999</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2199,16 +2118,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2216,16 +2135,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2233,107 +2152,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{46042D80-A68B-C245-B289-64926058A7A2}"/>
-    <hyperlink ref="E59" r:id="rId2" xr:uid="{BCA7DD34-CE32-5E46-BA6A-86FF9100EB6B}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{654552DE-AAED-034F-957F-7BD85063BA8E}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{3E2BF1A2-B581-D548-A22B-5E8C9E84FE82}"/>
+    <hyperlink ref="E51" r:id="rId2" xr:uid="{551B398B-9B97-AD47-B56A-55E5AE33227D}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{423C469E-8358-8F43-99EC-92C0B9C4A633}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2372,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2383,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2394,7 +2229,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2402,10 +2237,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2416,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2427,7 +2262,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2438,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -2449,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -2460,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>

--- a/telegram-bot/tag_contacts.xlsx
+++ b/telegram-bot/tag_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilad.barak/Documents/צבאי/ש7/XOAssistant/Xo-Assistance/telegram-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446BD78D-6B44-CB48-9120-F250D03EA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CD6810-7F05-BF49-9C10-AC247D86838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -607,6 +607,15 @@
   </si>
   <si>
     <t>tomerraz30@gmail.com</t>
+  </si>
+  <si>
+    <t>ostertomer@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תומר </t>
+  </si>
+  <si>
+    <t>אוסטר</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2162,6 +2171,23 @@
       </c>
       <c r="E61" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
